--- a/analyze/来客.xlsx
+++ b/analyze/来客.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudok\GitHub\golden_eagle\analyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8AC5CF7-6BE1-4F3E-AED4-77150EC7815D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB01588F-B625-40AF-A3F0-3D825172B7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9115A8BC-A947-43E7-80FE-C1BD01FBD070}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{9115A8BC-A947-43E7-80FE-C1BD01FBD070}"/>
   </bookViews>
   <sheets>
-    <sheet name="recognition.py(集計)" sheetId="2" r:id="rId1"/>
-    <sheet name="recognition.py(log)" sheetId="1" r:id="rId2"/>
+    <sheet name="recognition.py(log)" sheetId="1" r:id="rId1"/>
+    <sheet name="recognition.py(来客数集計)" sheetId="2" r:id="rId2"/>
+    <sheet name="recognition.py(集計結果)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>2026-01-23 07:16:17,053 : DEBUG : recognition.py - Keiko Kamiyama</t>
   </si>
@@ -90,6 +91,13 @@
   </si>
   <si>
     <t>Takayuki Kamiyama</t>
+  </si>
+  <si>
+    <t>来客数</t>
+    <rPh sb="0" eb="3">
+      <t>ライキャクスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -121,12 +129,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -135,9 +158,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,91 +478,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110675E8-8852-4D0D-A26D-C57114EC3797}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B5836B-0FA9-40F6-84DF-58B6BF701A9E}">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110675E8-8852-4D0D-A26D-C57114EC3797}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C2" s="1">
+        <f>COUNTA(A1:A19)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -565,109 +705,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B5836B-0FA9-40F6-84DF-58B6BF701A9E}">
-  <dimension ref="A1:A19"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8359A27D-66B2-4C57-AD5B-D7F0B0C9ECCD}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1">
+        <f>COUNTA(A1:A19)</f>
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/analyze/来客.xlsx
+++ b/analyze/来客.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudok\GitHub\golden_eagle\analyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB01588F-B625-40AF-A3F0-3D825172B7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA828F63-FF45-48C3-8088-76A658A09274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{9115A8BC-A947-43E7-80FE-C1BD01FBD070}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9115A8BC-A947-43E7-80FE-C1BD01FBD070}"/>
   </bookViews>
   <sheets>
-    <sheet name="recognition.py(log)" sheetId="1" r:id="rId1"/>
+    <sheet name="recognition.py(原型)" sheetId="1" r:id="rId1"/>
     <sheet name="recognition.py(来客数集計)" sheetId="2" r:id="rId2"/>
     <sheet name="recognition.py(集計結果)" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -481,7 +481,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B5836B-0FA9-40F6-84DF-58B6BF701A9E}">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -590,7 +592,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110675E8-8852-4D0D-A26D-C57114EC3797}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -709,7 +713,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8359A27D-66B2-4C57-AD5B-D7F0B0C9ECCD}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>

--- a/analyze/来客.xlsx
+++ b/analyze/来客.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudok\GitHub\golden_eagle\analyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA828F63-FF45-48C3-8088-76A658A09274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD05E3EB-11E9-486F-BDAC-89733A5AC86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9115A8BC-A947-43E7-80FE-C1BD01FBD070}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9115A8BC-A947-43E7-80FE-C1BD01FBD070}"/>
   </bookViews>
   <sheets>
     <sheet name="recognition.py(原型)" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B5836B-0FA9-40F6-84DF-58B6BF701A9E}">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -592,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110675E8-8852-4D0D-A26D-C57114EC3797}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1">
-        <f>COUNTA(A1:A19)</f>
+        <f>COUNTA(A:A)</f>
         <v>19</v>
       </c>
     </row>
@@ -732,7 +732,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1">
-        <f>COUNTA(A1:A19)</f>
+        <f>COUNTA(A:A)</f>
         <v>2</v>
       </c>
     </row>
